--- a/outputs-r202/o__UBA1407.xlsx
+++ b/outputs-r202/o__UBA1407.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +854,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -845,6 +895,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +936,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -917,6 +977,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +1018,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -989,6 +1059,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1025,6 +1100,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1061,6 +1141,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1097,6 +1182,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1133,6 +1223,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1169,6 +1264,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1205,6 +1305,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1241,6 +1346,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1277,6 +1387,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1313,6 +1428,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1349,6 +1469,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1385,6 +1510,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1421,6 +1551,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1457,6 +1592,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1493,6 +1633,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1529,6 +1674,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1565,6 +1715,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1601,6 +1756,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1637,6 +1797,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1673,6 +1838,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1709,6 +1879,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1745,6 +1920,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1781,6 +1961,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1817,6 +2002,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1853,6 +2043,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1889,6 +2084,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1925,6 +2125,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1961,6 +2166,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1997,6 +2207,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2033,6 +2248,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2069,6 +2289,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2105,6 +2330,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2141,6 +2371,11 @@
           <t>f__UBA1407</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2173,6 +2408,11 @@
         <v>0.943636153065415</v>
       </c>
       <c r="J48" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>f__UBA1407</t>
         </is>

--- a/outputs-r202/o__UBA1407.xlsx
+++ b/outputs-r202/o__UBA1407.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,32 +781,32 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG268.fasta</t>
+          <t>RUG303.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05636384693447392</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.943636153065415</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.943636153065415</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -822,32 +822,32 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG303.fasta</t>
+          <t>RUG308.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -863,32 +863,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG308.fasta</t>
+          <t>RUG363.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.95296039626291e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D11" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262915e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262911e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2318124298730637</v>
       </c>
       <c r="G11" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="H11" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262913e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -897,39 +897,39 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG363.fasta</t>
+          <t>RUG398.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.95296039626291e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1038640533848449</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>7.952960396262915e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>7.952960396262911e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2318124298730637</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H12" t="n">
-        <v>7.952960396262913e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG398.fasta</t>
+          <t>RUG409.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -986,32 +986,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG409.fasta</t>
+          <t>RUG439.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2955485773699365</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7044514226273715</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7044514226273715</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1020,14 +1020,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG439.fasta</t>
+          <t>RUG453.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1068,32 +1068,32 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG453.fasta</t>
+          <t>RUG484.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1109,32 +1109,32 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG484.fasta</t>
+          <t>RUG499.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.95296039626291e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D17" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262915e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262911e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2318124298730637</v>
       </c>
       <c r="G17" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="H17" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262913e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1143,39 +1143,39 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG499.fasta</t>
+          <t>RUG524.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.95296039626291e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1038640533848449</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>7.952960396262915e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>7.952960396262911e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2318124298730637</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H18" t="n">
-        <v>7.952960396262913e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG524.fasta</t>
+          <t>RUG531.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1232,32 +1232,32 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG531.fasta</t>
+          <t>RUG534.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05636384693447392</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.943636153065415</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.943636153065415</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1273,32 +1273,32 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG534.fasta</t>
+          <t>RUG554.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.01527531509074901</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.05946553715855152</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1314,32 +1314,32 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG554.fasta</t>
+          <t>RUG555.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>0.2318124298730638</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01527531509074901</v>
+        <v>0.103864053384845</v>
       </c>
       <c r="D22" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>7.952960396262903e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>7.952960396262896e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05946553715855152</v>
+        <v>7.952960396262903e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.6643235167417733</v>
       </c>
       <c r="H22" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>7.952960396262899e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.6643235167417733</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1348,39 +1348,39 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG555.fasta</t>
+          <t>RUG612.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2318124298730638</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.103864053384845</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>7.952960396262903e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>7.952960396262896e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>7.952960396262903e-14</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6643235167417733</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H23" t="n">
-        <v>7.952960396262899e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6643235167417733</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1389,39 +1389,39 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG607.fasta</t>
+          <t>RUG613.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.01527531509074901</v>
       </c>
       <c r="D24" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.05946553715855152</v>
       </c>
       <c r="G24" t="n">
-        <v>0.943636153065415</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="H24" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.943636153065415</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1437,32 +1437,32 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG612.fasta</t>
+          <t>RUG635.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.943636153065415</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H25" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0.943636153065415</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1471,39 +1471,39 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG613.fasta</t>
+          <t>RUG656.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01527531509074901</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05946553715855152</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H26" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1519,32 +1519,32 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG635.fasta</t>
+          <t>RUG663.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0.2318124298730638</v>
       </c>
       <c r="C27" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0.103864053384845</v>
       </c>
       <c r="D27" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>7.952960396262903e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>7.952960396262896e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2955485773699365</v>
+        <v>7.952960396262903e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.6643235167417733</v>
       </c>
       <c r="H27" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>7.952960396262899e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.6643235167417733</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG656.fasta</t>
+          <t>RUG677.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1601,32 +1601,32 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG663.fasta</t>
+          <t>RUG683.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2318124298730638</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0.103864053384845</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>7.952960396262903e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>7.952960396262896e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>7.952960396262903e-14</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6643235167417733</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H29" t="n">
-        <v>7.952960396262899e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6643235167417733</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1635,39 +1635,39 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG677.fasta</t>
+          <t>RUG688.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.95296039626291e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D30" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262915e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262911e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2318124298730637</v>
       </c>
       <c r="G30" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="H30" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262913e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1676,39 +1676,39 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RUG683.fasta</t>
+          <t>RUG692.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.01527531509074901</v>
       </c>
       <c r="D31" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.05946553715855152</v>
       </c>
       <c r="G31" t="n">
-        <v>0.943636153065415</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="H31" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>0.943636153065415</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1724,32 +1724,32 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>RUG688.fasta</t>
+          <t>RUG706.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.95296039626291e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1038640533848449</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>7.952960396262915e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>7.952960396262911e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2318124298730637</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H32" t="n">
-        <v>7.952960396262913e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1765,32 +1765,32 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RUG692.fasta</t>
+          <t>RUG740.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219928492969695e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01527531509074901</v>
+        <v>0.01935818668829408</v>
       </c>
       <c r="D33" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219928492969695e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219928492969695e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05946553715855152</v>
+        <v>2.219928492969695e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.9806418133115951</v>
       </c>
       <c r="H33" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219928492969695e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.9806418133115951</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1806,32 +1806,32 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>RUG706.fasta</t>
+          <t>RUG743.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>7.95296039626291e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D34" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>7.952960396262915e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>7.952960396262911e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2955485773699365</v>
+        <v>0.2318124298730637</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="H34" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>7.952960396262913e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1847,32 +1847,32 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RUG740.fasta</t>
+          <t>RUG763.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.219928492969695e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01935818668829408</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>2.219928492969695e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>2.219928492969695e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>2.219928492969695e-14</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9806418133115951</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H35" t="n">
-        <v>2.219928492969695e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9806418133115951</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1881,39 +1881,39 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG743.fasta</t>
+          <t>RUG822.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.95296039626291e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1038640533848449</v>
+        <v>0.01527531509074901</v>
       </c>
       <c r="D36" t="n">
-        <v>7.952960396262915e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>7.952960396262911e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2318124298730637</v>
+        <v>0.05946553715855152</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.952960396262913e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1922,39 +1922,39 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG763.fasta</t>
+          <t>RUG850.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2955485773699365</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H37" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1963,39 +1963,39 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG822.fasta</t>
+          <t>hRUG853.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>0.05348395133579003</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01527531509074901</v>
+        <v>0.01509535194450033</v>
       </c>
       <c r="D38" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.231486786142083e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.231486786142083e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05946553715855152</v>
+        <v>0.05348395133579001</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.8779367453838527</v>
       </c>
       <c r="H38" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.231486786142083e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.8779367453838527</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2011,32 +2011,32 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RUG830.fasta</t>
+          <t>hRUG855.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01527531509074901</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E39" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05946553715855152</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H39" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2045,39 +2045,39 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RUG850.fasta</t>
+          <t>hRUG856.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.95296039626291e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D40" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262915e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262911e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2318124298730637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="H40" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262913e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2086,39 +2086,39 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>hRUG853.fasta</t>
+          <t>hRUG866.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05348395133579003</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01509535194450033</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.231486786142083e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>2.231486786142083e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05348395133579001</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8779367453838527</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H41" t="n">
-        <v>2.231486786142083e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8779367453838527</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2134,32 +2134,32 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>hRUG855.fasta</t>
+          <t>hRUG875.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2955485773699365</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H42" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2168,39 +2168,39 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>hRUG856.fasta</t>
+          <t>hRUG882.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.95296039626291e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1038640533848449</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>7.952960396262915e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>7.952960396262911e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2318124298730637</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H43" t="n">
-        <v>7.952960396262913e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2216,32 +2216,32 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>hRUG866.fasta</t>
+          <t>hRUG886.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G44" t="n">
-        <v>0.943636153065415</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H44" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0.943636153065415</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>hRUG875.fasta</t>
+          <t>hRUG896.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2290,129 +2290,6 @@
         </is>
       </c>
       <c r="K45" t="inlineStr">
-        <is>
-          <t>f__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>hRUG882.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="D46" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.2955485773699365</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.7044514226273715</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5.383938376502749e-13</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.7044514226273715</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>f__UBA1407</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>f__UBA1407(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>hRUG886.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="D47" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5.383938376502717e-13</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.2955485773699365</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.7044514226273715</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5.383938376502749e-13</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.7044514226273715</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>f__UBA1407</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>f__UBA1407(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>hRUG896.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.05636384693447392</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.943636153065415</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.943636153065415</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>f__UBA1407</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>f__UBA1407</t>
         </is>

--- a/outputs-r202/o__UBA1407.xlsx
+++ b/outputs-r202/o__UBA1407.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,32 +1888,32 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG822.fasta</t>
+          <t>RUG805.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01527531509074901</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05946553715855152</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H36" t="n">
-        <v>2.221467496263292e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9252591477506107</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1929,32 +1929,32 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG850.fasta</t>
+          <t>RUG822.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.01527531509074901</v>
       </c>
       <c r="D37" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.05946553715855152</v>
       </c>
       <c r="G37" t="n">
-        <v>0.943636153065415</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="H37" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>2.221467496263292e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>0.943636153065415</v>
+        <v>0.9252591477506107</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1970,32 +1970,32 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>hRUG853.fasta</t>
+          <t>RUG850.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.05348395133579003</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01509535194450033</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.231486786142083e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.231486786142083e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05348395133579001</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8779367453838527</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H38" t="n">
-        <v>2.231486786142083e-14</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8779367453838527</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2011,32 +2011,32 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>hRUG855.fasta</t>
+          <t>hRUG853.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0.05348395133579003</v>
       </c>
       <c r="C39" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>0.01509535194450033</v>
       </c>
       <c r="D39" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.231486786142083e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.231486786142083e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2955485773699365</v>
+        <v>0.05348395133579001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.8779367453838527</v>
       </c>
       <c r="H39" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>2.231486786142083e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.8779367453838527</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2045,39 +2045,39 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>hRUG856.fasta</t>
+          <t>hRUG855.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.95296039626291e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1038640533848449</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>7.952960396262915e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>7.952960396262911e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2318124298730637</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="H40" t="n">
-        <v>7.952960396262913e-14</v>
+        <v>5.383938376502749e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6643235167417734</v>
+        <v>0.7044514226273715</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2093,32 +2093,32 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>hRUG866.fasta</t>
+          <t>hRUG856.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.95296039626291e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D41" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262915e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262911e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05636384693447392</v>
+        <v>0.2318124298730637</v>
       </c>
       <c r="G41" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="H41" t="n">
-        <v>2.219976927022541e-14</v>
+        <v>7.952960396262913e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.943636153065415</v>
+        <v>0.6643235167417734</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2127,14 +2127,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f__UBA1407</t>
+          <t>f__UBA1407(reject)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>hRUG875.fasta</t>
+          <t>hRUG866.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2175,32 +2175,32 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>hRUG882.fasta</t>
+          <t>hRUG875.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>5.383938376502717e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2955485773699365</v>
+        <v>0.05636384693447392</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="H43" t="n">
-        <v>5.383938376502749e-13</v>
+        <v>2.219976927022541e-14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7044514226273715</v>
+        <v>0.943636153065415</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2209,14 +2209,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>f__UBA1407(reject)</t>
+          <t>f__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>hRUG886.fasta</t>
+          <t>hRUG882.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2257,39 +2257,80 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
+          <t>hRUG886.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5.383938376502717e-13</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.383938376502717e-13</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.383938376502717e-13</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.383938376502717e-13</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2955485773699365</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7044514226273715</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5.383938376502749e-13</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7044514226273715</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>f__UBA1407(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>hRUG896.fasta</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="B46" t="n">
+        <v>2.219976927022541e-14</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.219976927022541e-14</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.219976927022541e-14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.219976927022541e-14</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.05636384693447392</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.943636153065415</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.219976927022541e-14</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.943636153065415</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>f__UBA1407</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
+      <c r="G46" t="n">
+        <v>0.943636153065415</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.219976927022541e-14</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.943636153065415</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>f__UBA1407</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>f__UBA1407</t>
         </is>
